--- a/src/test/resources/testData/EWB_QA.xlsx
+++ b/src/test/resources/testData/EWB_QA.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="393">
   <si>
     <t>Supply Type</t>
   </si>
@@ -1181,6 +1181,24 @@
   </si>
   <si>
     <t>Inv4o3aIi9FLg</t>
+  </si>
+  <si>
+    <t>InvL7gb9GsR10</t>
+  </si>
+  <si>
+    <t>InvD5c655lmRi</t>
+  </si>
+  <si>
+    <t>InvkfgC9RtZFv</t>
+  </si>
+  <si>
+    <t>InvPDW05RmxEw</t>
+  </si>
+  <si>
+    <t>InvGFyU5mlDE3</t>
+  </si>
+  <si>
+    <t>InvmcRlxhyZmN</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1784,7 @@
         <v>64</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>66</v>
@@ -1948,7 +1966,7 @@
         <v>64</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>66</v>
